--- a/biology/Botanique/Artabotrys/Artabotrys.xlsx
+++ b/biology/Botanique/Artabotrys/Artabotrys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Artabotrys est un genre de plantes appartenant à la famille des Annonaceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017) :
 Artabotrys fragrans Jovet-Ast
 Artabotrys hainanensis R. E. Fries
 Artabotrys hexapetalus (L. f.) Bhandari
@@ -522,7 +536,7 @@
 Artabotrys pilosus Merrill &amp; Chun
 Artabotrys punctulatus C. Y. Wu ex S. H. Yuan
 Artabotrys rhynchocarpus C. Y. Wu ex S. H. Yuan
-Selon Catalogue of Life                                   (24 juillet 2017)[3] :
+Selon Catalogue of Life                                   (24 juillet 2017) :
 Artabotrys aeneus Ast
 Artabotrys antunesii Engl. &amp; Diels
 Artabotrys arachnoides J. Sinclair
@@ -628,11 +642,11 @@
 Artabotrys vinhensis Ast
 Artabotrys wrayi King
 Artabotrys zeylanicus Hook. f. &amp; Thomson
-Selon GRIN            (24 juillet 2017)[4] :
+Selon GRIN            (24 juillet 2017) :
 Artabotrys hexapetalus (L. f.) Bhandari
-Selon ITIS      (24 juillet 2017)[5] :
+Selon ITIS      (24 juillet 2017) :
 Artabotrys hexapetalus (L. f.) Bhandari
-Selon NCBI  (24 juillet 2017)[6] :
+Selon NCBI  (24 juillet 2017) :
 Artabotrys aurantiacus
 Artabotrys brachypetalus
 Artabotrys carnosipetalus
@@ -653,7 +667,7 @@
 Artabotrys suaveolens
 Artabotrys thomsonii
 Artabotrys velutinus
-Selon The Plant List            (24 juillet 2017)[7] :
+Selon The Plant List            (24 juillet 2017) :
 Artabotrys aereus Ast
 Artabotrys antunesii Engl. &amp; Diels
 Artabotrys arachnoides J.Sinclair
@@ -756,7 +770,7 @@
 Artabotrys vinhensis Ast
 Artabotrys wrayi King
 Artabotrys zeylanicus Hook.f. &amp; Thomson
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Artabotrys aeneus Jovet-Ast
 Artabotrys aereus Ast
 Artabotrys antunesii Engl. &amp; Diels
